--- a/data/trans_orig/P16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26037</v>
+        <v>25031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48273</v>
+        <v>46880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07154521151527075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05270064037364831</v>
+        <v>0.05066308568848501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09770571263157601</v>
+        <v>0.09488579592270739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>29954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20974</v>
+        <v>21662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41065</v>
+        <v>43048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06407416621159577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04486419025871979</v>
+        <v>0.04633646682004884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08784256298551249</v>
+        <v>0.09208311405907875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>65302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51503</v>
+        <v>51431</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81951</v>
+        <v>80720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06791292880869598</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05356196782080733</v>
+        <v>0.05348777712086662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0852281049523025</v>
+        <v>0.08394739014196709</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>458716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>445791</v>
+        <v>447184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468027</v>
+        <v>469033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9284547884847293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.902294287368424</v>
+        <v>0.9051142040772927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9472993596263517</v>
+        <v>0.949336914311515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>458</v>
@@ -836,19 +836,19 @@
         <v>437535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>426424</v>
+        <v>424441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>446515</v>
+        <v>445827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9359258337884042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9121574370144876</v>
+        <v>0.9079168859409213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9551358097412803</v>
+        <v>0.9536635331799511</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>920</v>
@@ -857,19 +857,19 @@
         <v>896251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>879602</v>
+        <v>880833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>910050</v>
+        <v>910122</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.932087071191304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9147718950476968</v>
+        <v>0.9160526098580341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9464380321791922</v>
+        <v>0.9465122228791337</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>34416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22825</v>
+        <v>23503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46443</v>
+        <v>47342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04679327733985419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03103440995091499</v>
+        <v>0.03195521715137967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06314539921065858</v>
+        <v>0.0643679044336148</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -982,19 +982,19 @@
         <v>47367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35275</v>
+        <v>35395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62737</v>
+        <v>62258</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07572662040835888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0563954760440815</v>
+        <v>0.05658800217821089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1003005387696599</v>
+        <v>0.09953466941018975</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -1003,19 +1003,19 @@
         <v>81782</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65879</v>
+        <v>64868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100237</v>
+        <v>101701</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06009075044947709</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04840581187372103</v>
+        <v>0.04766282446910611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07365020642552318</v>
+        <v>0.07472596961909345</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>701073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>689046</v>
+        <v>688147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>712664</v>
+        <v>711986</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9532067226601458</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9368546007893415</v>
+        <v>0.935632095566385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.968965590049085</v>
+        <v>0.9680447828486199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -1053,19 +1053,19 @@
         <v>578127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>562757</v>
+        <v>563236</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>590219</v>
+        <v>590099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9242733795916411</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8996994612303401</v>
+        <v>0.9004653305898103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9436045239559184</v>
+        <v>0.9434119978217891</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1215</v>
@@ -1074,19 +1074,19 @@
         <v>1279200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1260745</v>
+        <v>1259281</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1295103</v>
+        <v>1296114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9399092495505229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9263497935744768</v>
+        <v>0.9252740303809067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515941881262791</v>
+        <v>0.9523371755308941</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28457</v>
+        <v>28228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53866</v>
+        <v>51957</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06146872835116713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04462770583855694</v>
+        <v>0.04426837626194519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08447570617483328</v>
+        <v>0.08148198460682343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>51389</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37911</v>
+        <v>38722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67268</v>
+        <v>69407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07450472922790877</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05496448068463981</v>
+        <v>0.05613930166966671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09752644450023679</v>
+        <v>0.1006272661124972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1220,19 +1220,19 @@
         <v>90585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72428</v>
+        <v>73372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110819</v>
+        <v>110710</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06824253398396435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05456423231921122</v>
+        <v>0.05527533121603817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08348633320783999</v>
+        <v>0.08340413394622952</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>598454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583783</v>
+        <v>585692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609192</v>
+        <v>609421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9385312716488329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9155242938251668</v>
+        <v>0.9185180153931767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9553722941614431</v>
+        <v>0.9557316237380552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -1270,19 +1270,19 @@
         <v>638355</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622476</v>
+        <v>620337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651833</v>
+        <v>651022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9254952707720913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9024735554997633</v>
+        <v>0.8993727338875026</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9450355193153605</v>
+        <v>0.9438606983303331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1187</v>
@@ -1291,19 +1291,19 @@
         <v>1236809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1216575</v>
+        <v>1216684</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1254966</v>
+        <v>1254022</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9317574660160356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9165136667921601</v>
+        <v>0.9165958660537707</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9454357676807889</v>
+        <v>0.9447246687839622</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>26776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17211</v>
+        <v>17525</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39134</v>
+        <v>39976</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05157737582643245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03315269278083288</v>
+        <v>0.03375749136485863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07538179386988911</v>
+        <v>0.07700335747507664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>21808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13847</v>
+        <v>13816</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31064</v>
+        <v>32507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04229205770475121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02685444080081701</v>
+        <v>0.02679391162023343</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06024252654371005</v>
+        <v>0.06304265524480362</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1437,19 +1437,19 @@
         <v>48584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35977</v>
+        <v>36092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65144</v>
+        <v>63794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04695044244927735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03476747492264521</v>
+        <v>0.03487836088531451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06295413653561632</v>
+        <v>0.06164944481167808</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>492371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480013</v>
+        <v>479171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501936</v>
+        <v>501622</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9484226241735676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.92461820613011</v>
+        <v>0.9229966425249235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9668473072191668</v>
+        <v>0.9662425086351414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -1487,19 +1487,19 @@
         <v>493834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>484578</v>
+        <v>483135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501795</v>
+        <v>501826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9577079422952488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9397574734562899</v>
+        <v>0.9369573447551962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9731455591991829</v>
+        <v>0.9732060883797665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>941</v>
@@ -1508,19 +1508,19 @@
         <v>986205</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>969645</v>
+        <v>970995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>998812</v>
+        <v>998697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9530495575507226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9370458634643831</v>
+        <v>0.938350555188322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9652325250773546</v>
+        <v>0.9651216391146855</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>26362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17944</v>
+        <v>17868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38434</v>
+        <v>37296</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06816904096747474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.046401393738552</v>
+        <v>0.04620459143382328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09938702800611093</v>
+        <v>0.09644378334148218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1633,19 +1633,19 @@
         <v>21366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13470</v>
+        <v>13225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31397</v>
+        <v>31772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05288716803730598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03334176213491573</v>
+        <v>0.03273522508033365</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0777171904917099</v>
+        <v>0.07864649965251597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -1654,19 +1654,19 @@
         <v>47727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35961</v>
+        <v>36538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62333</v>
+        <v>62212</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06036115742460695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04547961275186859</v>
+        <v>0.04620985296015689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07883267924538052</v>
+        <v>0.07867990454933013</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>360348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>348276</v>
+        <v>349414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>368766</v>
+        <v>368842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9318309590325252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.900612971993889</v>
+        <v>0.903556216658518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.953598606261448</v>
+        <v>0.9537954085661767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>375</v>
@@ -1704,19 +1704,19 @@
         <v>382620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>372589</v>
+        <v>372214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>390516</v>
+        <v>390761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.947112831962694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9222828095082901</v>
+        <v>0.9213535003474839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9666582378650845</v>
+        <v>0.9672647749196663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>740</v>
@@ -1725,19 +1725,19 @@
         <v>742969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>728363</v>
+        <v>728484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>754735</v>
+        <v>754158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9396388425753931</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9211673207546195</v>
+        <v>0.92132009545067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9545203872481315</v>
+        <v>0.9537901470398432</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>29369</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21006</v>
+        <v>20224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40528</v>
+        <v>40880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1003791154522283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07179377967476498</v>
+        <v>0.06912281271648781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.138518389794527</v>
+        <v>0.1397196044520742</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1850,19 +1850,19 @@
         <v>29149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20296</v>
+        <v>20211</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39797</v>
+        <v>40352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08499774184389222</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05918344739487779</v>
+        <v>0.05893547172316492</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.116047523918649</v>
+        <v>0.1176680865072562</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1871,19 +1871,19 @@
         <v>58518</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45221</v>
+        <v>46185</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73862</v>
+        <v>75457</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09207910779197978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07115655779147884</v>
+        <v>0.07267341422629491</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1162232371221522</v>
+        <v>0.1187336922325916</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>263214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252055</v>
+        <v>251703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271577</v>
+        <v>272359</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8996208845477718</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.861481610205473</v>
+        <v>0.8602803955479255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9282062203252349</v>
+        <v>0.9308771872835122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1921,19 +1921,19 @@
         <v>313785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>303137</v>
+        <v>302582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322638</v>
+        <v>322723</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9150022581561078</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.883952476081351</v>
+        <v>0.8823319134927433</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9408165526051222</v>
+        <v>0.9410645282768351</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -1942,19 +1942,19 @@
         <v>576999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>561655</v>
+        <v>560060</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>590296</v>
+        <v>589332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9079208922080202</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8837767628778477</v>
+        <v>0.8812663077674083</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9288434422085211</v>
+        <v>0.9273265857737051</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>35253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25594</v>
+        <v>25372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47141</v>
+        <v>46448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1679654792691711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1219448522686244</v>
+        <v>0.1208862453786179</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2246063373733262</v>
+        <v>0.221302916731638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2067,19 +2067,19 @@
         <v>16053</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9059</v>
+        <v>9039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26441</v>
+        <v>24798</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04807494645814889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02712873463339012</v>
+        <v>0.02707049591484496</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0791877995352399</v>
+        <v>0.07426449919841403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2088,19 +2088,19 @@
         <v>51306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38469</v>
+        <v>38611</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65313</v>
+        <v>66554</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09434821238756814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07074245805769143</v>
+        <v>0.0710038979132812</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1201060456607161</v>
+        <v>0.1223887656545651</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>174630</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162742</v>
+        <v>163435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>184289</v>
+        <v>184511</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8320345207308288</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7753936626266736</v>
+        <v>0.7786970832683618</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8780551477313756</v>
+        <v>0.879113754621382</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>276</v>
@@ -2138,19 +2138,19 @@
         <v>317855</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>307467</v>
+        <v>309110</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>324849</v>
+        <v>324869</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9519250535418511</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9208122004647603</v>
+        <v>0.9257355008015861</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9728712653666098</v>
+        <v>0.9729295040851551</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>460</v>
@@ -2159,19 +2159,19 @@
         <v>492485</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478478</v>
+        <v>477237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>505322</v>
+        <v>505180</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9056517876124318</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8798939543392839</v>
+        <v>0.8776112343454349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9292575419423085</v>
+        <v>0.9289961020867188</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>226720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06921624668597008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -2284,19 +2284,19 @@
         <v>217084</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06424134627277592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>434</v>
@@ -2305,19 +2305,19 @@
         <v>443804</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06669004515213445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3048805</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3018298</v>
+        <v>3020497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3076545</v>
+        <v>3075576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.93078375331403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9214698530830682</v>
+        <v>0.9221412290124297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9392525700374147</v>
+        <v>0.9389567576420765</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3090</v>
@@ -2355,19 +2355,19 @@
         <v>3162113</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3130748</v>
+        <v>3133755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3189235</v>
+        <v>3190128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9357586537272241</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9264769783702799</v>
+        <v>0.9273666588763551</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9437849488559492</v>
+        <v>0.9440492064422503</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6076</v>
@@ -2376,19 +2376,19 @@
         <v>6210918</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6167911</v>
+        <v>6165606</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6250209</v>
+        <v>6247408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9333099548478655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9268473248010535</v>
+        <v>0.9265009349034311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9392141201451247</v>
+        <v>0.9387932686848125</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>41490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29944</v>
+        <v>30799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54735</v>
+        <v>55449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09156883745190275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06608721620605817</v>
+        <v>0.06797359454751288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1207991583889261</v>
+        <v>0.1223746346503538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2744,19 +2744,19 @@
         <v>51300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39252</v>
+        <v>38649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66582</v>
+        <v>65249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1194871294042823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09142497934613676</v>
+        <v>0.09001913094013055</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1550793481747047</v>
+        <v>0.1519745250396219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -2765,19 +2765,19 @@
         <v>92791</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76030</v>
+        <v>75026</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111607</v>
+        <v>113057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1051520346593812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08615864962335475</v>
+        <v>0.08502065111731066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.126474282312546</v>
+        <v>0.1281176852788916</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>411615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398370</v>
+        <v>397656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423161</v>
+        <v>422306</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9084311625480972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8792008416110736</v>
+        <v>0.8776253653496462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9339127837939418</v>
+        <v>0.9320264054524869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>370</v>
@@ -2815,19 +2815,19 @@
         <v>378039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>362757</v>
+        <v>364090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390087</v>
+        <v>390690</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8805128705957177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8449206518252952</v>
+        <v>0.8480254749603778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9085750206538632</v>
+        <v>0.9099808690598694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>775</v>
@@ -2836,19 +2836,19 @@
         <v>789654</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>770838</v>
+        <v>769388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>806415</v>
+        <v>807419</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8948479653406188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8735257176874546</v>
+        <v>0.8718823147211084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9138413503766454</v>
+        <v>0.9149793488826894</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>65431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50134</v>
+        <v>51144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82348</v>
+        <v>81986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0953470968013886</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07305692873841362</v>
+        <v>0.0745280170984234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1199993511471071</v>
+        <v>0.1194711602549847</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -2961,19 +2961,19 @@
         <v>56850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42839</v>
+        <v>42009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72455</v>
+        <v>72557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09331663868972849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07031812881901062</v>
+        <v>0.06895669884017609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1189314825452708</v>
+        <v>0.1190994440679114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -2982,19 +2982,19 @@
         <v>122281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102341</v>
+        <v>100088</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147122</v>
+        <v>143820</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09439223045835106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07900000205057413</v>
+        <v>0.07726150268528527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1135684958455309</v>
+        <v>0.1110190583729662</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>620807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>603890</v>
+        <v>604252</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>636104</v>
+        <v>635094</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9046529031986114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8800006488528929</v>
+        <v>0.8805288397450153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9269430712615865</v>
+        <v>0.9254719829015766</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>515</v>
@@ -3032,19 +3032,19 @@
         <v>552364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>536759</v>
+        <v>536657</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>566375</v>
+        <v>567205</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9066833613102715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8810685174547291</v>
+        <v>0.880900555932089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9296818711809893</v>
+        <v>0.9310433011598239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1120</v>
@@ -3053,19 +3053,19 @@
         <v>1173170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1148329</v>
+        <v>1151631</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1193110</v>
+        <v>1195363</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9056077695416489</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.886431504154469</v>
+        <v>0.8889809416270337</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9209999979494254</v>
+        <v>0.9227384973147147</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>56671</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43229</v>
+        <v>42676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74767</v>
+        <v>73418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08333311013132838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06356740484623555</v>
+        <v>0.06275325709387301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1099431323706859</v>
+        <v>0.1079597402447491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3178,19 +3178,19 @@
         <v>51924</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39780</v>
+        <v>39495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67347</v>
+        <v>66976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07355410876361597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05635025912058777</v>
+        <v>0.05594717525975737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09540058166483906</v>
+        <v>0.09487611197243685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -3199,19 +3199,19 @@
         <v>108595</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90652</v>
+        <v>89226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133071</v>
+        <v>131763</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07835230428276461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06540601654808302</v>
+        <v>0.06437687454677364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09601177010559557</v>
+        <v>0.09506764050690125</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>623383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605287</v>
+        <v>606636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636825</v>
+        <v>637378</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9166668898686716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8900568676293139</v>
+        <v>0.8920402597552508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9364325951537644</v>
+        <v>0.937246742906127</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>612</v>
@@ -3249,19 +3249,19 @@
         <v>654011</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638588</v>
+        <v>638959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>666155</v>
+        <v>666440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.926445891236384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.904599418335161</v>
+        <v>0.9051238880275633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9436497408794126</v>
+        <v>0.9440528247402427</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1209</v>
@@ -3270,19 +3270,19 @@
         <v>1277394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252918</v>
+        <v>1254226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1295337</v>
+        <v>1296763</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9216476957172354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9039882298944047</v>
+        <v>0.9049323594930988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.934593983451917</v>
+        <v>0.9356231254532265</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>48013</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34031</v>
+        <v>36229</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64377</v>
+        <v>66243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07811872238557706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05536878672021905</v>
+        <v>0.05894611245090225</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1047440679443756</v>
+        <v>0.1077786906658535</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3395,19 +3395,19 @@
         <v>46201</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33837</v>
+        <v>34821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60816</v>
+        <v>61104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0752370622487729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.055102128577548</v>
+        <v>0.05670430119405623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09903764671018198</v>
+        <v>0.09950592610332855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -3416,19 +3416,19 @@
         <v>94214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75044</v>
+        <v>75868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114842</v>
+        <v>114221</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07667853038718676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06107628927306683</v>
+        <v>0.06174703298401457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09346681791002248</v>
+        <v>0.09296182487492315</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>566604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>550240</v>
+        <v>548374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>580586</v>
+        <v>578388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.921881277614423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8952559320556244</v>
+        <v>0.8922213093341468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9446312132797808</v>
+        <v>0.9410538875490978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -3466,19 +3466,19 @@
         <v>567871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>553256</v>
+        <v>552968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>580235</v>
+        <v>579251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9247629377512271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.900962353289818</v>
+        <v>0.900494073896671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.944897871422452</v>
+        <v>0.9432956988059438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1002</v>
@@ -3487,19 +3487,19 @@
         <v>1134475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1113847</v>
+        <v>1114468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1153645</v>
+        <v>1152821</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9233214696128133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9065331820899775</v>
+        <v>0.9070381751250769</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9389237107269331</v>
+        <v>0.9382529670159855</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>39943</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27790</v>
+        <v>28531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54916</v>
+        <v>54985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09325056997035147</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06487876107776673</v>
+        <v>0.06660828517140704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1282063079372505</v>
+        <v>0.1283657083268376</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3612,19 +3612,19 @@
         <v>27162</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17970</v>
+        <v>17958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39889</v>
+        <v>40457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06080898225457804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04023147753479685</v>
+        <v>0.04020347938400447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08930303976654541</v>
+        <v>0.0905731517027437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -3633,19 +3633,19 @@
         <v>67105</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52039</v>
+        <v>52275</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85762</v>
+        <v>85937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.076689963880381</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05947170317439682</v>
+        <v>0.05974132252359408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09801197755231587</v>
+        <v>0.09821145633362532</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>388401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>373428</v>
+        <v>373359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400554</v>
+        <v>399813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9067494300296486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8717936920627501</v>
+        <v>0.8716342916731614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9351212389222335</v>
+        <v>0.9333917148285928</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>380</v>
@@ -3683,19 +3683,19 @@
         <v>419513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>406786</v>
+        <v>406218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428705</v>
+        <v>428717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9391910177454219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9106969602334564</v>
+        <v>0.9094268482972567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9597685224652035</v>
+        <v>0.9597965206159955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>737</v>
@@ -3704,19 +3704,19 @@
         <v>807913</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>789256</v>
+        <v>789081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>822979</v>
+        <v>822743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.923310036119619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9019880224476842</v>
+        <v>0.9017885436663746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9405282968256032</v>
+        <v>0.9402586774764059</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>32028</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22783</v>
+        <v>22133</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43658</v>
+        <v>44807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1040561485891379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07402102954354681</v>
+        <v>0.07190775395082942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1418414661641064</v>
+        <v>0.145573160740775</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -3829,19 +3829,19 @@
         <v>25339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17134</v>
+        <v>16509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36304</v>
+        <v>36551</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07177081127607247</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04852916596287039</v>
+        <v>0.04676049071441529</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1028272069894175</v>
+        <v>0.1035266452414215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -3850,19 +3850,19 @@
         <v>57367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44683</v>
+        <v>43804</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74619</v>
+        <v>74757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08680781275459222</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06761354837992271</v>
+        <v>0.06628405542990995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1129133689389174</v>
+        <v>0.1131219197668765</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>275767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264137</v>
+        <v>262988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285012</v>
+        <v>285662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8959438514108621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8581585338358936</v>
+        <v>0.8544268392592254</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9259789704564532</v>
+        <v>0.9280922460491707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>319</v>
@@ -3900,19 +3900,19 @@
         <v>327720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316755</v>
+        <v>316508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>335925</v>
+        <v>336550</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9282291887239276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8971727930105823</v>
+        <v>0.8964733547585785</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9514708340371296</v>
+        <v>0.9532395092855845</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>570</v>
@@ -3921,19 +3921,19 @@
         <v>603487</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>586235</v>
+        <v>586097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>616171</v>
+        <v>617050</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9131921872454077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.887086631061083</v>
+        <v>0.8868780802331236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9323864516200774</v>
+        <v>0.9337159445700906</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>39411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28315</v>
+        <v>29276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53712</v>
+        <v>53795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1582525625693548</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1136996290726489</v>
+        <v>0.1175586410089931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2156782076442766</v>
+        <v>0.2160114826798164</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -4046,19 +4046,19 @@
         <v>36181</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24467</v>
+        <v>26104</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47908</v>
+        <v>49228</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09355151395720304</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06326365210891458</v>
+        <v>0.06749459132201964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1238710732370427</v>
+        <v>0.1272854476979352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -4067,19 +4067,19 @@
         <v>75592</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60060</v>
+        <v>59476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95026</v>
+        <v>94407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1188946535910167</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09446464834868797</v>
+        <v>0.09354753084656839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1494612836477902</v>
+        <v>0.1484879283046655</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>209625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195324</v>
+        <v>195241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220721</v>
+        <v>219760</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8417474374306452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7843217923557235</v>
+        <v>0.7839885173201836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8863003709273514</v>
+        <v>0.882441358991007</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>315</v>
@@ -4117,19 +4117,19 @@
         <v>350572</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>338845</v>
+        <v>337525</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>362286</v>
+        <v>360649</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9064484860427969</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8761289267629573</v>
+        <v>0.8727145523020648</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9367363478910853</v>
+        <v>0.9325054086779804</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>501</v>
@@ -4138,19 +4138,19 @@
         <v>560197</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>540763</v>
+        <v>541382</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>575729</v>
+        <v>576313</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8811053464089833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8505387163522098</v>
+        <v>0.8515120716953345</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.905535351651312</v>
+        <v>0.9064524691534316</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>322987</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09446306809818086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>280</v>
@@ -4263,19 +4263,19 @@
         <v>294958</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08320290302103703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>574</v>
@@ -4284,19 +4284,19 @@
         <v>617945</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0887312371927516</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3096201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3059684</v>
+        <v>3059180</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3130326</v>
+        <v>3132206</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9055369319018192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8948567979393344</v>
+        <v>0.8947095657117201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9155173095519754</v>
+        <v>0.9160672446301187</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3006</v>
@@ -4334,19 +4334,19 @@
         <v>3250089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3215130</v>
+        <v>3216154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3281891</v>
+        <v>3282219</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9167970969789629</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9069358886735939</v>
+        <v>0.9072247631482447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9257681060389784</v>
+        <v>0.925860530326665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5914</v>
@@ -4355,19 +4355,19 @@
         <v>6346290</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6289565</v>
+        <v>6294609</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6393575</v>
+        <v>6391207</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9112687628072484</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9031235582527345</v>
+        <v>0.9038478406231587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9180585041776286</v>
+        <v>0.9177184111430934</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>25645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16074</v>
+        <v>17825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36841</v>
+        <v>38745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06113768671144395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0383206804028745</v>
+        <v>0.04249590438385315</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08783012656013059</v>
+        <v>0.09236756839310616</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4723,19 +4723,19 @@
         <v>45490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34460</v>
+        <v>34060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58562</v>
+        <v>58789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1149452273789352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08707389249793628</v>
+        <v>0.08606222432177134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1479755956643168</v>
+        <v>0.1485492942094217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -4744,19 +4744,19 @@
         <v>71135</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56890</v>
+        <v>56658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90737</v>
+        <v>89097</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08725904735089773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0697845974027837</v>
+        <v>0.06949991078591773</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1113041831577605</v>
+        <v>0.1092922940452121</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>393818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382622</v>
+        <v>380718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403389</v>
+        <v>401638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9388623132885561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9121698734398694</v>
+        <v>0.9076324316068934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9616793195971254</v>
+        <v>0.9575040956161468</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>358</v>
@@ -4794,19 +4794,19 @@
         <v>350265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337193</v>
+        <v>336966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361295</v>
+        <v>361695</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8850547726210648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8520244043356835</v>
+        <v>0.8514507057905775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9129261075020639</v>
+        <v>0.9139377756782286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>728</v>
@@ -4815,19 +4815,19 @@
         <v>744083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>724481</v>
+        <v>726121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>758328</v>
+        <v>758560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9127409526491023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8886958168422392</v>
+        <v>0.8907077059547879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9302154025972161</v>
+        <v>0.9305000892140821</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>51683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38602</v>
+        <v>39340</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67200</v>
+        <v>67229</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0875251665451907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06537267668063147</v>
+        <v>0.06662118119734087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1138026666654461</v>
+        <v>0.1138516416510187</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -4940,19 +4940,19 @@
         <v>46723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35892</v>
+        <v>34860</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61958</v>
+        <v>60005</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08290847741393736</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06368964785643182</v>
+        <v>0.06185783325296779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1099443320253908</v>
+        <v>0.1064781452358937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -4961,19 +4961,19 @@
         <v>98406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81306</v>
+        <v>80983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120604</v>
+        <v>119052</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08527073331764737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0704537684401158</v>
+        <v>0.0701735661316905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1045058565174995</v>
+        <v>0.1031610689526137</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>538813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>523296</v>
+        <v>523267</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>551894</v>
+        <v>551156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9124748334548093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8861973333345539</v>
+        <v>0.8861483583489812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9346273233193685</v>
+        <v>0.9333788188026592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>530</v>
@@ -5011,19 +5011,19 @@
         <v>516821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>501586</v>
+        <v>503539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527652</v>
+        <v>528684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9170915225860626</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8900556679746093</v>
+        <v>0.8935218547641064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9363103521435682</v>
+        <v>0.9381421667470321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1050</v>
@@ -5032,19 +5032,19 @@
         <v>1055634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1033436</v>
+        <v>1034988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1072734</v>
+        <v>1073057</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9147292666823527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8954941434825008</v>
+        <v>0.8968389310473867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9295462315598841</v>
+        <v>0.9298264338683095</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>49237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36880</v>
+        <v>36965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65174</v>
+        <v>63496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07358669323796772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05511926276059751</v>
+        <v>0.05524570707686167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09740584469276699</v>
+        <v>0.0948987710619074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -5157,19 +5157,19 @@
         <v>52916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41372</v>
+        <v>40099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68233</v>
+        <v>67865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08000747841534932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06255313330873667</v>
+        <v>0.0606283433543921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1031668650074822</v>
+        <v>0.1026098272771471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -5178,19 +5178,19 @@
         <v>102152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83868</v>
+        <v>82932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122490</v>
+        <v>122842</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0767784809688072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06303566162239427</v>
+        <v>0.06233220982367816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0920643586998101</v>
+        <v>0.09232889199329616</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>619860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603923</v>
+        <v>605601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>632217</v>
+        <v>632132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9264133067620323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9025941553072331</v>
+        <v>0.9051012289380926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9448807372394025</v>
+        <v>0.9447542929231383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>612</v>
@@ -5228,19 +5228,19 @@
         <v>608470</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>593153</v>
+        <v>593521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620014</v>
+        <v>621287</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9199925215846507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8968331349925178</v>
+        <v>0.8973901727228529</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9374468666912634</v>
+        <v>0.9393716566456078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -5249,19 +5249,19 @@
         <v>1228331</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1207993</v>
+        <v>1207641</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1246615</v>
+        <v>1247551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9232215190311928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9079356413001899</v>
+        <v>0.9076711080067038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9369643383776057</v>
+        <v>0.9376677901763218</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>40725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29215</v>
+        <v>29321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56083</v>
+        <v>54826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06303709438879827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04522098765338149</v>
+        <v>0.04538573309637252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08680954835830354</v>
+        <v>0.08486307613286211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -5374,19 +5374,19 @@
         <v>44708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33574</v>
+        <v>33562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61541</v>
+        <v>60556</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06887914477115031</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05172585776009512</v>
+        <v>0.05170687971637185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0948125098467065</v>
+        <v>0.09329528471625433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -5395,19 +5395,19 @@
         <v>85433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66966</v>
+        <v>67059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106039</v>
+        <v>106445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06596495037589628</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05170639042036593</v>
+        <v>0.05177789574267416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08187544957261762</v>
+        <v>0.08218902383062883</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>605323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589965</v>
+        <v>591222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>616833</v>
+        <v>616727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9369629056112018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9131904516416964</v>
+        <v>0.9151369238671381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9547790123466184</v>
+        <v>0.9546142669036275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>561</v>
@@ -5445,19 +5445,19 @@
         <v>604369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587536</v>
+        <v>588521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615503</v>
+        <v>615515</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9311208552288497</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9051874901532935</v>
+        <v>0.9067047152837464</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9482741422399049</v>
+        <v>0.9482931202836282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1107</v>
@@ -5466,19 +5466,19 @@
         <v>1209692</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1189086</v>
+        <v>1188680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1228159</v>
+        <v>1228066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9340350496241038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9181245504273826</v>
+        <v>0.9178109761693712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9482936095796343</v>
+        <v>0.948222104257326</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>36957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25683</v>
+        <v>26216</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51323</v>
+        <v>51033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07732870593947798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05373936520075931</v>
+        <v>0.05485419637794021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1073889693495329</v>
+        <v>0.1067811559844616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5591,19 +5591,19 @@
         <v>41376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28992</v>
+        <v>30220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56230</v>
+        <v>56446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0832761443457725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05835167852338908</v>
+        <v>0.06082374972868274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1131733805668574</v>
+        <v>0.1136079715172455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -5612,19 +5612,19 @@
         <v>78332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61735</v>
+        <v>63119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97779</v>
+        <v>97470</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08036017790498957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06333286457059228</v>
+        <v>0.06475253890566725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1003099736691421</v>
+        <v>0.09999303009955345</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>440961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>426595</v>
+        <v>426885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>452235</v>
+        <v>451702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9226712940605221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8926110306504671</v>
+        <v>0.8932188440155389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9462606347992407</v>
+        <v>0.94514580362206</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>397</v>
@@ -5662,19 +5662,19 @@
         <v>455473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>440619</v>
+        <v>440403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>467857</v>
+        <v>466629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9167238556542275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.886826619433143</v>
+        <v>0.8863920284827546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.941648321476611</v>
+        <v>0.9391762502713173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>789</v>
@@ -5683,19 +5683,19 @@
         <v>896435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>876988</v>
+        <v>877297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>913032</v>
+        <v>911648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9196398220950104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8996900263308578</v>
+        <v>0.9000069699004464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9366671354294077</v>
+        <v>0.9352474610943328</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>25416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16591</v>
+        <v>17529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34689</v>
+        <v>35648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07601955360263501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0496253178285489</v>
+        <v>0.05243031623735387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.10375717874238</v>
+        <v>0.1066265472586985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5808,19 +5808,19 @@
         <v>28106</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17794</v>
+        <v>18881</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38387</v>
+        <v>41014</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0744009848231342</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04710458069367378</v>
+        <v>0.04998107275461716</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1016170348990801</v>
+        <v>0.1085697299841277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -5829,19 +5829,19 @@
         <v>53521</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40253</v>
+        <v>40787</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66823</v>
+        <v>69044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07516090923915587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05652810852935325</v>
+        <v>0.05727771336551404</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09384035998677535</v>
+        <v>0.09695963519927167</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>308914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>299641</v>
+        <v>298682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>317739</v>
+        <v>316801</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.923980446397365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8962428212576197</v>
+        <v>0.8933734527413011</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9503746821714509</v>
+        <v>0.9475696837626461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>328</v>
@@ -5879,19 +5879,19 @@
         <v>349656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339375</v>
+        <v>336748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>359968</v>
+        <v>358881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9255990151768658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8983829651009202</v>
+        <v>0.8914302700158723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9528954193063263</v>
+        <v>0.9500189272453829</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>627</v>
@@ -5900,19 +5900,19 @@
         <v>658571</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>645269</v>
+        <v>643048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>671839</v>
+        <v>671305</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9248390907608441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9061596400132244</v>
+        <v>0.9030403648007284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9434718914706467</v>
+        <v>0.9427222866344859</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>31471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21920</v>
+        <v>23248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41892</v>
+        <v>43368</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1224549326184484</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08529228894089462</v>
+        <v>0.09046056370542331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1630058770417019</v>
+        <v>0.168746483483811</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6025,19 +6025,19 @@
         <v>35960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23771</v>
+        <v>24232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52920</v>
+        <v>52415</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08986307477938238</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05940326596131684</v>
+        <v>0.06055396450783933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1322447301823291</v>
+        <v>0.1309829310430514</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -6046,19 +6046,19 @@
         <v>67431</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50552</v>
+        <v>51745</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84119</v>
+        <v>86659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1026087578543351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07692458259485747</v>
+        <v>0.07873907498018026</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1280023342480657</v>
+        <v>0.1318678924766852</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>225527</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215106</v>
+        <v>213630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235078</v>
+        <v>233750</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8775450673815516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.836994122958298</v>
+        <v>0.8312535165161894</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9147077110591053</v>
+        <v>0.9095394362945769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>276</v>
@@ -6096,19 +6096,19 @@
         <v>364209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>347249</v>
+        <v>347754</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>376398</v>
+        <v>375937</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9101369252206176</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8677552698176716</v>
+        <v>0.8690170689569492</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9405967340386832</v>
+        <v>0.9394460354921614</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>542</v>
@@ -6117,19 +6117,19 @@
         <v>589736</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>573048</v>
+        <v>570508</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>606615</v>
+        <v>605422</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8973912421456649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8719976657519343</v>
+        <v>0.8681321075233149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9230754174051423</v>
+        <v>0.9212609250198197</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>261133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07693165230526061</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>276</v>
@@ -6242,19 +6242,19 @@
         <v>295278</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08330508377987707</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>525</v>
@@ -6263,19 +6263,19 @@
         <v>556411</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08018734419751215</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3133217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3099463</v>
+        <v>3100466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3163089</v>
+        <v>3163857</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9230683476947393</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.913124096783677</v>
+        <v>0.9134197560612985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9318688839301086</v>
+        <v>0.9320951242193519</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3062</v>
@@ -6313,19 +6313,19 @@
         <v>3249264</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3213493</v>
+        <v>3211658</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3279740</v>
+        <v>3280652</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9166949162201229</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9066030625052711</v>
+        <v>0.9060855922925379</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9252930431538865</v>
+        <v>0.9255502986751104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6044</v>
@@ -6334,19 +6334,19 @@
         <v>6382481</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6331364</v>
+        <v>6334491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6426267</v>
+        <v>6424729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9198126558024878</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9124459103757235</v>
+        <v>0.9128966366022654</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9261229784852887</v>
+        <v>0.9259012574639931</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>24273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12732</v>
+        <v>11846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47186</v>
+        <v>45509</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05952383610171355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03122141591919163</v>
+        <v>0.02905018373164799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1157099777617419</v>
+        <v>0.1115983892854833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -6702,19 +6702,19 @@
         <v>29466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17783</v>
+        <v>17431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47674</v>
+        <v>48333</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08128363130741557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04905398920697993</v>
+        <v>0.04808366775271056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1315100601370617</v>
+        <v>0.1333290029877572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -6723,19 +6723,19 @@
         <v>53740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35133</v>
+        <v>35957</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81501</v>
+        <v>78677</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0697641771998372</v>
+        <v>0.06976417719983719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04560863412079624</v>
+        <v>0.04667842761608868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.105803145209376</v>
+        <v>0.1021380326418008</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>383520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360607</v>
+        <v>362284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395061</v>
+        <v>395947</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9404761638982866</v>
+        <v>0.9404761638982865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8842900222382581</v>
+        <v>0.8884016107145166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9687785840808084</v>
+        <v>0.970949816268352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -6773,19 +6773,19 @@
         <v>333046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>314838</v>
+        <v>314179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344729</v>
+        <v>345081</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9187163686925844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8684899398629379</v>
+        <v>0.8666709970122425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.95094601079302</v>
+        <v>0.9519163322472894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -6794,19 +6794,19 @@
         <v>716565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>688804</v>
+        <v>691628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735172</v>
+        <v>734348</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9302358228001629</v>
+        <v>0.9302358228001627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8941968547906242</v>
+        <v>0.8978619673581987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9543913658792038</v>
+        <v>0.9533215723839114</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>52558</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38854</v>
+        <v>36151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76145</v>
+        <v>74327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1102097391779983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08147425346443272</v>
+        <v>0.07580621201036226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1596709823697025</v>
+        <v>0.1558585042278035</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -6919,19 +6919,19 @@
         <v>36677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26030</v>
+        <v>25842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50437</v>
+        <v>50571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07319552729932764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05194677520774309</v>
+        <v>0.05157315134669894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1006568837602102</v>
+        <v>0.1009243190453532</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -6940,19 +6940,19 @@
         <v>89235</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70637</v>
+        <v>68829</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112079</v>
+        <v>112545</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09124480974967755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07222834306111008</v>
+        <v>0.07037921776893748</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1146037531709938</v>
+        <v>0.1150802686695995</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>424332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400745</v>
+        <v>402563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438036</v>
+        <v>440739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8897902608220016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8403290176302979</v>
+        <v>0.8441414957721965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9185257465355676</v>
+        <v>0.9241937879896375</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -6990,19 +6990,19 @@
         <v>464406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450646</v>
+        <v>450512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475053</v>
+        <v>475241</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9268044727006725</v>
+        <v>0.9268044727006723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8993431162397899</v>
+        <v>0.8990756809546468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9480532247922568</v>
+        <v>0.9484268486533011</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -7011,19 +7011,19 @@
         <v>888738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865894</v>
+        <v>865428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>907336</v>
+        <v>909144</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9087551902503223</v>
+        <v>0.9087551902503225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8853962468290063</v>
+        <v>0.8849197313304006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9277716569388899</v>
+        <v>0.9296207822310625</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>45797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33263</v>
+        <v>33207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60852</v>
+        <v>60411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07376638078944292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05357820990530075</v>
+        <v>0.05348794619332869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09801566017176942</v>
+        <v>0.09730515666035389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -7136,19 +7136,19 @@
         <v>41324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32057</v>
+        <v>31655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52921</v>
+        <v>52273</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.066503866970541</v>
+        <v>0.06650386697054102</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05159050003873519</v>
+        <v>0.05094414954263203</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08516813936643457</v>
+        <v>0.08412560740623816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -7157,19 +7157,19 @@
         <v>87121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72504</v>
+        <v>71157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104882</v>
+        <v>103411</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07013355343118767</v>
+        <v>0.07013355343118766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05836655434328319</v>
+        <v>0.05728290836351994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08443185947316963</v>
+        <v>0.08324766223482469</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>575040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559985</v>
+        <v>560426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>587574</v>
+        <v>587630</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9262336192105572</v>
+        <v>0.926233619210557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9019843398282306</v>
+        <v>0.9026948433396462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9464217900946994</v>
+        <v>0.9465120538066716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>786</v>
@@ -7207,19 +7207,19 @@
         <v>580050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>568453</v>
+        <v>569101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>589317</v>
+        <v>589719</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.933496133029459</v>
+        <v>0.9334961330294592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9148318606335656</v>
+        <v>0.9158743925937617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9484094999612649</v>
+        <v>0.9490558504573666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1290</v>
@@ -7228,19 +7228,19 @@
         <v>1155090</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1137329</v>
+        <v>1138800</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1169707</v>
+        <v>1171054</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9298664465688123</v>
+        <v>0.9298664465688122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9155681405268306</v>
+        <v>0.9167523377651752</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9416334456567174</v>
+        <v>0.94271709163648</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>46093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34355</v>
+        <v>33376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61085</v>
+        <v>62650</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06578964066099964</v>
+        <v>0.06578964066099963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04903603150745629</v>
+        <v>0.04763734356832873</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08718719013377625</v>
+        <v>0.08942182758402489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -7353,19 +7353,19 @@
         <v>49321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39891</v>
+        <v>39433</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61019</v>
+        <v>60687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06693146025448872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05413425902624002</v>
+        <v>0.05351293205650968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08280660141762698</v>
+        <v>0.0823558649432511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -7374,19 +7374,19 @@
         <v>95414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79769</v>
+        <v>78608</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114349</v>
+        <v>114531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06637495490968774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05549108051951149</v>
+        <v>0.05468378959077221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07954671031652145</v>
+        <v>0.07967385293088156</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>654524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>639532</v>
+        <v>637967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666262</v>
+        <v>667241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9342103593390004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9128128098662236</v>
+        <v>0.9105781724159752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9509639684925436</v>
+        <v>0.9523626564316715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1063</v>
@@ -7424,19 +7424,19 @@
         <v>687565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>675867</v>
+        <v>676199</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>696995</v>
+        <v>697453</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9330685397455113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.917193398582373</v>
+        <v>0.9176441350567489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.94586574097376</v>
+        <v>0.9464870679434905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1685</v>
@@ -7445,19 +7445,19 @@
         <v>1342090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1323155</v>
+        <v>1322973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1357735</v>
+        <v>1358896</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9336250450903121</v>
+        <v>0.9336250450903122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9204532896834786</v>
+        <v>0.9203261470691184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9445089194804885</v>
+        <v>0.9453162104092278</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>34890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24673</v>
+        <v>24584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47575</v>
+        <v>48603</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05735095776382676</v>
+        <v>0.05735095776382675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0405560314284384</v>
+        <v>0.04041003204598487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07820140868036342</v>
+        <v>0.07989150852796638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -7570,19 +7570,19 @@
         <v>55336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45791</v>
+        <v>44444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67388</v>
+        <v>67167</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09109600435296444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0753818843703644</v>
+        <v>0.07316523523665799</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1109360309045463</v>
+        <v>0.1105726930661196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -7591,19 +7591,19 @@
         <v>90226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75709</v>
+        <v>75982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107271</v>
+        <v>109349</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07421083615452413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06227064111313405</v>
+        <v>0.06249512818332026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08823061725991226</v>
+        <v>0.08993951494457819</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>573469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>560784</v>
+        <v>559756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>583686</v>
+        <v>583775</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9426490422361734</v>
+        <v>0.9426490422361733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9217985913196366</v>
+        <v>0.9201084914720332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9594439685715618</v>
+        <v>0.9595899679540152</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>909</v>
@@ -7641,19 +7641,19 @@
         <v>552112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>540060</v>
+        <v>540281</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>561657</v>
+        <v>563004</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9089039956470355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8890639690954537</v>
+        <v>0.8894273069338803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9246181156296355</v>
+        <v>0.9268347647633418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1534</v>
@@ -7662,19 +7662,19 @@
         <v>1125581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1108536</v>
+        <v>1106458</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1140098</v>
+        <v>1139825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9257891638454759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9117693827400878</v>
+        <v>0.9100604850554218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.937729358886866</v>
+        <v>0.9375048718166796</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>32476</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24879</v>
+        <v>23882</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42522</v>
+        <v>42271</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07977850577877788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06111473301019312</v>
+        <v>0.05866555436720145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1044554497641776</v>
+        <v>0.1038403907851165</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -7787,19 +7787,19 @@
         <v>35570</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27332</v>
+        <v>27827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43731</v>
+        <v>45411</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08099464372230626</v>
+        <v>0.08099464372230625</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06223509983953525</v>
+        <v>0.06336315028493565</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09957836362730692</v>
+        <v>0.1034038157892457</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -7808,19 +7808,19 @@
         <v>68046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56523</v>
+        <v>56794</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80694</v>
+        <v>80772</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08040963043604681</v>
+        <v>0.08040963043604682</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06679207813983598</v>
+        <v>0.06711238634559762</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09535470592300579</v>
+        <v>0.09544703155953475</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>374604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>364558</v>
+        <v>364809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>382201</v>
+        <v>383198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9202214942212221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8955445502358225</v>
+        <v>0.8961596092148836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9388852669898069</v>
+        <v>0.9413344456327987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>763</v>
@@ -7858,19 +7858,19 @@
         <v>403596</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>395435</v>
+        <v>393755</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>411834</v>
+        <v>411339</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9190053562776938</v>
+        <v>0.9190053562776936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.900421636372693</v>
+        <v>0.8965961842107552</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9377649001604647</v>
+        <v>0.9366368497150644</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1287</v>
@@ -7879,19 +7879,19 @@
         <v>778200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>765552</v>
+        <v>765474</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>789723</v>
+        <v>789452</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9195903695639531</v>
+        <v>0.9195903695639533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.904645294076994</v>
+        <v>0.9045529684404653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9332079218601641</v>
+        <v>0.9328876136544029</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>17581</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11498</v>
+        <v>11876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24896</v>
+        <v>25694</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05667748679808277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03706607708545456</v>
+        <v>0.0382861161552419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08025890213769352</v>
+        <v>0.08282965437040203</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -8004,19 +8004,19 @@
         <v>40629</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32075</v>
+        <v>32552</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50471</v>
+        <v>50716</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0877366389374548</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06926449458723194</v>
+        <v>0.07029466634848582</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1089898714348408</v>
+        <v>0.1095186293881913</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -8025,19 +8025,19 @@
         <v>58210</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47959</v>
+        <v>48316</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69881</v>
+        <v>70060</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07527732708887522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06202001915185822</v>
+        <v>0.06248248470743386</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09037036842891384</v>
+        <v>0.0906020233242562</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>292617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>285302</v>
+        <v>284504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>298700</v>
+        <v>298322</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9433225132019172</v>
+        <v>0.9433225132019171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9197410978623065</v>
+        <v>0.9171703456295981</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9629339229145455</v>
+        <v>0.9617138838447583</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>799</v>
@@ -8075,19 +8075,19 @@
         <v>422450</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>412608</v>
+        <v>412363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>431004</v>
+        <v>430527</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9122633610625454</v>
+        <v>0.9122633610625452</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.891010128565159</v>
+        <v>0.8904813706118089</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9307355054127682</v>
+        <v>0.9297053336515143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1229</v>
@@ -8096,19 +8096,19 @@
         <v>715067</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>703396</v>
+        <v>703217</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>725318</v>
+        <v>724961</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9247226729111246</v>
+        <v>0.9247226729111248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9096296315710861</v>
+        <v>0.9093979766757438</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9379799808481417</v>
+        <v>0.9375175152925659</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>253669</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>421</v>
@@ -8221,19 +8221,19 @@
         <v>288323</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>657</v>
@@ -8242,19 +8242,19 @@
         <v>541992</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07462041817764165</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3278106</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3242606</v>
+        <v>3240067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3311979</v>
+        <v>3311023</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9281751867397076</v>
+        <v>0.9281751867397074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.918123642868428</v>
+        <v>0.9174047143814007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9377661574109294</v>
+        <v>0.9374955409041504</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4937</v>
@@ -8292,19 +8292,19 @@
         <v>3443225</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3408586</v>
+        <v>3409201</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3470311</v>
+        <v>3468996</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9227336435006362</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.913450886482403</v>
+        <v>0.9136158000874126</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9299924362511915</v>
+        <v>0.929640030391137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8076</v>
@@ -8313,19 +8313,19 @@
         <v>6721331</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6673803</v>
+        <v>6670243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6765741</v>
+        <v>6763321</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9253795818223582</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9188360064195892</v>
+        <v>0.9183458844116587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9314938379305633</v>
+        <v>0.9311607288361898</v>
       </c>
     </row>
     <row r="27">
